--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Icam1-Itgam.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Icam1-Itgam.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,7 +525,7 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -534,46 +534,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>163.9108346666667</v>
+        <v>9.861094666666666</v>
       </c>
       <c r="H2">
-        <v>491.732504</v>
+        <v>29.583284</v>
       </c>
       <c r="I2">
-        <v>0.8426759240348239</v>
+        <v>0.243709096397741</v>
       </c>
       <c r="J2">
-        <v>0.8426759240348242</v>
+        <v>0.2437090963977409</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>71.05680966666667</v>
+        <v>0.005673666666666667</v>
       </c>
       <c r="N2">
-        <v>213.170429</v>
+        <v>0.017021</v>
       </c>
       <c r="O2">
-        <v>0.9993537943934382</v>
+        <v>0.1234828534325781</v>
       </c>
       <c r="P2">
-        <v>0.9993537943934382</v>
+        <v>0.1234828534325781</v>
       </c>
       <c r="Q2">
-        <v>11646.9809812138</v>
+        <v>0.05594856410711111</v>
       </c>
       <c r="R2">
-        <v>104822.8288309242</v>
+        <v>0.5035370769640001</v>
       </c>
       <c r="S2">
-        <v>0.8421313821281979</v>
+        <v>0.0300938946306683</v>
       </c>
       <c r="T2">
-        <v>0.8421313821281982</v>
+        <v>0.0300938946306683</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,7 +587,7 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>163.9108346666667</v>
+        <v>9.861094666666666</v>
       </c>
       <c r="H3">
-        <v>491.732504</v>
+        <v>29.583284</v>
       </c>
       <c r="I3">
-        <v>0.8426759240348239</v>
+        <v>0.243709096397741</v>
       </c>
       <c r="J3">
-        <v>0.8426759240348242</v>
+        <v>0.2437090963977409</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -614,33 +614,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.005673666666666667</v>
+        <v>0.04027333333333333</v>
       </c>
       <c r="N3">
-        <v>0.017021</v>
+        <v>0.12082</v>
       </c>
       <c r="O3">
-        <v>7.979531220238203E-05</v>
+        <v>0.8765171465674219</v>
       </c>
       <c r="P3">
-        <v>7.979531220238202E-05</v>
+        <v>0.876517146567422</v>
       </c>
       <c r="Q3">
-        <v>0.9299754389537778</v>
+        <v>0.3971391525422222</v>
       </c>
       <c r="R3">
-        <v>8.369778950584001</v>
+        <v>3.57425237288</v>
       </c>
       <c r="S3">
-        <v>6.724158844378955E-05</v>
+        <v>0.2136152017670727</v>
       </c>
       <c r="T3">
-        <v>6.724158844378955E-05</v>
+        <v>0.2136152017670727</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,7 +649,7 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>163.9108346666667</v>
+        <v>29.35342966666667</v>
       </c>
       <c r="H4">
-        <v>491.732504</v>
+        <v>88.060289</v>
       </c>
       <c r="I4">
-        <v>0.8426759240348239</v>
+        <v>0.7254466225154019</v>
       </c>
       <c r="J4">
-        <v>0.8426759240348242</v>
+        <v>0.7254466225154018</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -676,28 +676,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.04027333333333333</v>
+        <v>0.005673666666666667</v>
       </c>
       <c r="N4">
-        <v>0.12082</v>
+        <v>0.017021</v>
       </c>
       <c r="O4">
-        <v>0.0005664102943594264</v>
+        <v>0.1234828534325781</v>
       </c>
       <c r="P4">
-        <v>0.0005664102943594264</v>
+        <v>0.1234828534325781</v>
       </c>
       <c r="Q4">
-        <v>6.601235681475555</v>
+        <v>0.1665415754521111</v>
       </c>
       <c r="R4">
-        <v>59.41112113328001</v>
+        <v>1.498874179069</v>
       </c>
       <c r="S4">
-        <v>0.0004773003181821663</v>
+        <v>0.0895802189612282</v>
       </c>
       <c r="T4">
-        <v>0.0004773003181821664</v>
+        <v>0.0895802189612282</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,7 +711,7 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,45 +726,45 @@
         <v>88.060289</v>
       </c>
       <c r="I5">
-        <v>0.1509078305790594</v>
+        <v>0.7254466225154019</v>
       </c>
       <c r="J5">
-        <v>0.1509078305790594</v>
+        <v>0.7254466225154018</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>71.05680966666667</v>
+        <v>0.04027333333333333</v>
       </c>
       <c r="N5">
-        <v>213.170429</v>
+        <v>0.12082</v>
       </c>
       <c r="O5">
-        <v>0.9993537943934382</v>
+        <v>0.8765171465674219</v>
       </c>
       <c r="P5">
-        <v>0.9993537943934382</v>
+        <v>0.876517146567422</v>
       </c>
       <c r="Q5">
-        <v>2085.76106488822</v>
+        <v>1.182160457442222</v>
       </c>
       <c r="R5">
-        <v>18771.84958399398</v>
+        <v>10.63944411698</v>
       </c>
       <c r="S5">
-        <v>0.1508103130928651</v>
+        <v>0.6358664035541737</v>
       </c>
       <c r="T5">
-        <v>0.1508103130928651</v>
+        <v>0.6358664035541737</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>29.35342966666667</v>
+        <v>1.248038666666667</v>
       </c>
       <c r="H6">
-        <v>88.060289</v>
+        <v>3.744116</v>
       </c>
       <c r="I6">
-        <v>0.1509078305790594</v>
+        <v>0.03084428108685718</v>
       </c>
       <c r="J6">
-        <v>0.1509078305790594</v>
+        <v>0.03084428108685716</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -806,27 +806,27 @@
         <v>0.017021</v>
       </c>
       <c r="O6">
-        <v>7.979531220238203E-05</v>
+        <v>0.1234828534325781</v>
       </c>
       <c r="P6">
-        <v>7.979531220238202E-05</v>
+        <v>0.1234828534325781</v>
       </c>
       <c r="Q6">
-        <v>0.1665415754521111</v>
+        <v>0.007080955381777779</v>
       </c>
       <c r="R6">
-        <v>1.498874179069</v>
+        <v>0.06372859843600001</v>
       </c>
       <c r="S6">
-        <v>1.204173745484022E-05</v>
+        <v>0.003808739840681626</v>
       </c>
       <c r="T6">
-        <v>1.204173745484022E-05</v>
+        <v>0.003808739840681625</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>29.35342966666667</v>
+        <v>1.248038666666667</v>
       </c>
       <c r="H7">
-        <v>88.060289</v>
+        <v>3.744116</v>
       </c>
       <c r="I7">
-        <v>0.1509078305790594</v>
+        <v>0.03084428108685718</v>
       </c>
       <c r="J7">
-        <v>0.1509078305790594</v>
+        <v>0.03084428108685716</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -868,208 +868,22 @@
         <v>0.12082</v>
       </c>
       <c r="O7">
-        <v>0.0005664102943594264</v>
+        <v>0.8765171465674219</v>
       </c>
       <c r="P7">
-        <v>0.0005664102943594264</v>
+        <v>0.876517146567422</v>
       </c>
       <c r="Q7">
-        <v>1.182160457442222</v>
+        <v>0.05026267723555556</v>
       </c>
       <c r="R7">
-        <v>10.63944411698</v>
+        <v>0.45236409512</v>
       </c>
       <c r="S7">
-        <v>8.547574873942749E-05</v>
+        <v>0.02703554124617555</v>
       </c>
       <c r="T7">
-        <v>8.547574873942749E-05</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>1.248038666666667</v>
-      </c>
-      <c r="H8">
-        <v>3.744116</v>
-      </c>
-      <c r="I8">
-        <v>0.006416245386116614</v>
-      </c>
-      <c r="J8">
-        <v>0.006416245386116614</v>
-      </c>
-      <c r="K8">
-        <v>2</v>
-      </c>
-      <c r="L8">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M8">
-        <v>71.05680966666667</v>
-      </c>
-      <c r="N8">
-        <v>213.170429</v>
-      </c>
-      <c r="O8">
-        <v>0.9993537943934382</v>
-      </c>
-      <c r="P8">
-        <v>0.9993537943934382</v>
-      </c>
-      <c r="Q8">
-        <v>88.68164599397379</v>
-      </c>
-      <c r="R8">
-        <v>798.134813945764</v>
-      </c>
-      <c r="S8">
-        <v>0.006412099172375028</v>
-      </c>
-      <c r="T8">
-        <v>0.006412099172375029</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>1.248038666666667</v>
-      </c>
-      <c r="H9">
-        <v>3.744116</v>
-      </c>
-      <c r="I9">
-        <v>0.006416245386116614</v>
-      </c>
-      <c r="J9">
-        <v>0.006416245386116614</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M9">
-        <v>0.005673666666666667</v>
-      </c>
-      <c r="N9">
-        <v>0.017021</v>
-      </c>
-      <c r="O9">
-        <v>7.979531220238203E-05</v>
-      </c>
-      <c r="P9">
-        <v>7.979531220238202E-05</v>
-      </c>
-      <c r="Q9">
-        <v>0.007080955381777779</v>
-      </c>
-      <c r="R9">
-        <v>0.06372859843600001</v>
-      </c>
-      <c r="S9">
-        <v>5.119863037522685E-07</v>
-      </c>
-      <c r="T9">
-        <v>5.119863037522684E-07</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>1.248038666666667</v>
-      </c>
-      <c r="H10">
-        <v>3.744116</v>
-      </c>
-      <c r="I10">
-        <v>0.006416245386116614</v>
-      </c>
-      <c r="J10">
-        <v>0.006416245386116614</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M10">
-        <v>0.04027333333333333</v>
-      </c>
-      <c r="N10">
-        <v>0.12082</v>
-      </c>
-      <c r="O10">
-        <v>0.0005664102943594264</v>
-      </c>
-      <c r="P10">
-        <v>0.0005664102943594264</v>
-      </c>
-      <c r="Q10">
-        <v>0.05026267723555556</v>
-      </c>
-      <c r="R10">
-        <v>0.45236409512</v>
-      </c>
-      <c r="S10">
-        <v>3.634227437832623E-06</v>
-      </c>
-      <c r="T10">
-        <v>3.634227437832623E-06</v>
+        <v>0.02703554124617554</v>
       </c>
     </row>
   </sheetData>
